--- a/QA/testcases/CPR/Provider/Phar_Patient_App_Delete_Provider.xlsx
+++ b/QA/testcases/CPR/Provider/Phar_Patient_App_Delete_Provider.xlsx
@@ -19,6 +19,7 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391">
   <si>
     <t>Step No</t>
   </si>
@@ -771,6 +772,45 @@
   </si>
   <si>
     <t>Diagnosis date selected</t>
+  </si>
+  <si>
+    <t>MEDICATION_NAME</t>
+  </si>
+  <si>
+    <t>Type Medication name</t>
+  </si>
+  <si>
+    <t>Medication name entered</t>
+  </si>
+  <si>
+    <t>Select Medication name</t>
+  </si>
+  <si>
+    <t>Medication name selected</t>
+  </si>
+  <si>
+    <t>DOSAGE</t>
+  </si>
+  <si>
+    <t>TestDosage</t>
+  </si>
+  <si>
+    <t>Enter Dosage</t>
+  </si>
+  <si>
+    <t>Dosage entered</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Enter frequency</t>
+  </si>
+  <si>
+    <t>Frequency entered</t>
   </si>
   <si>
     <t>SELF_LASTPAGE</t>
@@ -1174,10 +1214,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1210,15 +1250,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1233,102 +1291,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1348,13 +1314,87 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1375,7 +1415,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor theme="4" tint="0.799920651875362"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,13 +1463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,37 +1481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,13 +1505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1477,7 +1523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,7 +1535,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,19 +1571,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,37 +1595,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1623,7 +1675,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1639,6 +1715,32 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1666,66 +1768,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1737,134 +1789,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1875,6 +1927,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2051,6 +2109,19 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2332,10 +2403,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117:A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4907,395 +4978,501 @@
       <c r="A121" s="8">
         <v>120</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H121" s="7"/>
+      <c r="B121" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H121" s="11"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="8">
         <v>121</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8">
-        <v>10</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" s="8"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12">
+        <v>5</v>
+      </c>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="14"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H123" s="7"/>
+      <c r="B123" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="H123" s="15"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="8">
         <v>123</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
+      <c r="B124" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="H124" s="14"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="8">
         <v>124</v>
       </c>
-      <c r="B125" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7">
-        <v>1</v>
-      </c>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
+      <c r="B125" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="H125" s="15"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="H126" s="8"/>
+      <c r="C126" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="8">
         <v>126</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7">
-        <v>5</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H127" s="7"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8">
+        <v>10</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" s="8"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="8">
         <v>127</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="H128" s="8"/>
+      <c r="C128" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H128" s="7"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C129" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H129" s="7"/>
+      <c r="C129" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="8">
         <v>129</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8">
-        <v>2</v>
-      </c>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7">
+        <v>1</v>
+      </c>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="8">
         <v>130</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F131" s="7" t="s">
+      <c r="B131" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="G131" s="7" t="s">
+      <c r="E131" s="8"/>
+      <c r="F131" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="H131" s="7"/>
+      <c r="G131" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H131" s="8"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F132" s="8" t="s">
+      <c r="B132" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7">
+        <v>5</v>
+      </c>
+      <c r="F132" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G132" s="8" t="s">
+      <c r="G132" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H132" s="8"/>
+      <c r="H132" s="7"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="8">
         <v>132</v>
       </c>
-      <c r="B133" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E133" s="7">
-        <v>9889656446</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H133" s="7"/>
+      <c r="B133" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H133" s="8"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="8">
         <v>133</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C134" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H134" s="8"/>
+      <c r="C134" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H134" s="7"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="8">
+      <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7">
-        <v>10</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H135" s="7"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8">
+        <v>2</v>
+      </c>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="8">
         <v>135</v>
       </c>
-      <c r="B136" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H136" s="8"/>
+      <c r="B136" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H136" s="7"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="8">
         <v>136</v>
       </c>
-      <c r="B137" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7">
-        <v>5</v>
-      </c>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
+      <c r="B137" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H137" s="8"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="8">
+      <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="H138" s="8"/>
+      <c r="B138" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E138" s="7">
+        <v>9889656446</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H138" s="7"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="8">
         <v>138</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="H139" s="8"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="8">
+        <v>139</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7">
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7">
+        <v>10</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H140" s="7"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="7">
+        <v>140</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H141" s="8"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="8">
+        <v>141</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7">
+        <v>5</v>
+      </c>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="8">
+        <v>142</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H143" s="8"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="7">
+        <v>143</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7">
         <v>4</v>
       </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B127">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B132">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
@@ -5304,7 +5481,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B43 C43 B62 B128 B12:B31 B32:B42 B44:B60 B64:B77 B115:B120 B121:B125 B130:B135 B136:B137 C2:C3 C12:C31 C32:C42 C44:C77 C115:C120 C121:C125 C128:C135 C136:C137">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B43 C43 B62 B133 B12:B31 B32:B42 B44:B60 B64:B77 B115:B120 B126:B130 B135:B140 B141:B142 C2:C3 C12:C31 C32:C42 C44:C77 C115:C120 C126:C130 C133:C140 C141:C142">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C89 B98 C98 B4:B11 B78:B97 B99:B110 B111:B112 C7:C9 C87:C88 C90:C93 C94:C97 C99:C104 C105:C110 C111:C112">
@@ -5319,8 +5496,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113:B114">
       <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138:B139">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B143:B144">
       <formula1>[8]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B121:C125">
+      <formula1>[9]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5350,7 +5530,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5358,20 +5538,20 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5382,20 +5562,20 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -5403,47 +5583,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="C11" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5453,12 +5633,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5468,45 +5648,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -5516,7 +5696,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5526,152 +5706,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5681,209 +5861,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -5898,7 +6078,7 @@
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Provider/Phar_Patient_App_Delete_Provider.xlsx
+++ b/QA/testcases/CPR/Provider/Phar_Patient_App_Delete_Provider.xlsx
@@ -1214,10 +1214,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1252,9 +1252,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1268,46 +1268,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1327,9 +1303,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1343,47 +1380,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1439,7 +1439,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1451,19 +1511,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,61 +1571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,31 +1583,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,36 +1608,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1671,6 +1671,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1682,8 +1736,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1704,47 +1760,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1753,31 +1768,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1789,130 +1789,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2405,8 +2405,8 @@
   <sheetPr/>
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117:A144"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2536,7 +2536,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2674,7 +2674,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -2924,7 +2924,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>61</v>
